--- a/docs/Copie_de_BOUSSOLE.xlsx
+++ b/docs/Copie_de_BOUSSOLE.xlsx
@@ -86,7 +86,7 @@
     <t xml:space="preserve">SANTE</t>
   </si>
   <si>
-    <t xml:space="preserve">addiction</t>
+    <t xml:space="preserve">addictions</t>
   </si>
   <si>
     <t xml:space="preserve">réunions</t>
@@ -1406,7 +1406,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1453,18 +1453,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1643,17 +1631,17 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="36.57"/>
@@ -1841,7 +1829,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -1875,7 +1863,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -1886,7 +1874,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1914,7 +1902,7 @@
         <v>57</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="8"/>
@@ -1946,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M8" s="8"/>
@@ -1984,7 +1972,7 @@
       <c r="M9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2016,7 +2004,7 @@
         <v>85</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2046,7 +2034,7 @@
         <v>92</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2076,7 +2064,7 @@
         <v>92</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2106,7 +2094,7 @@
         <v>92</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2127,7 +2115,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="12" t="s">
         <v>106</v>
       </c>
       <c r="J14" s="8"/>
@@ -2160,7 +2148,7 @@
       <c r="G15" s="10" t="n">
         <v>478928811</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>114</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -2177,13 +2165,13 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2193,12 +2181,12 @@
       <c r="F16" s="8"/>
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="16" t="s">
         <v>122</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="17" t="s">
         <v>123</v>
       </c>
       <c r="M16" s="8" t="s">
@@ -2206,567 +2194,567 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+    <row r="17" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20" t="s">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+    <row r="21" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+    <row r="22" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="N22" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+    <row r="23" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N23" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+    <row r="24" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="25" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
+    <row r="25" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+    <row r="26" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+    <row r="27" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+    <row r="28" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="N28" s="24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+    <row r="29" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N29" s="27" t="s">
+      <c r="N29" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" s="22" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+    <row r="30" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="21" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2785,7 +2773,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="27" t="s">
         <v>241</v>
       </c>
       <c r="H31" s="8"/>
@@ -2825,7 +2813,7 @@
       <c r="H32" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="28" t="s">
         <v>251</v>
       </c>
       <c r="J32" s="8" t="s">
@@ -2848,18 +2836,18 @@
       <c r="C33" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="29" t="s">
         <v>257</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="28" t="s">
         <v>258</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="28" t="s">
         <v>251</v>
       </c>
       <c r="J33" s="8" t="s">
@@ -2893,7 +2881,7 @@
       <c r="H34" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="28" t="s">
         <v>251</v>
       </c>
       <c r="J34" s="8" t="s">
@@ -2927,7 +2915,7 @@
       <c r="H35" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="28" t="s">
         <v>251</v>
       </c>
       <c r="J35" s="8" t="s">
@@ -2961,7 +2949,7 @@
       <c r="H36" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J36" s="8" t="s">
@@ -2993,7 +2981,7 @@
       <c r="H37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J37" s="8" t="s">
@@ -3025,7 +3013,7 @@
       <c r="H38" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J38" s="8" t="s">
@@ -3057,7 +3045,7 @@
       <c r="H39" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J39" s="8" t="s">
@@ -3089,7 +3077,7 @@
       <c r="H40" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J40" s="8" t="s">
@@ -3121,7 +3109,7 @@
       <c r="H41" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J41" s="8" t="s">
@@ -3153,7 +3141,7 @@
       <c r="H42" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J42" s="8" t="s">
@@ -3183,7 +3171,7 @@
         <v>320</v>
       </c>
       <c r="H43" s="8"/>
-      <c r="I43" s="33" t="s">
+      <c r="I43" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J43" s="8" t="s">
@@ -3215,7 +3203,7 @@
       <c r="H44" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J44" s="8" t="s">
@@ -3243,7 +3231,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="10"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J45" s="8" t="s">
@@ -3275,7 +3263,7 @@
       <c r="H46" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J46" s="8" t="s">
@@ -3307,7 +3295,7 @@
       <c r="H47" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J47" s="8" t="s">
@@ -3337,7 +3325,7 @@
         <v>347</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="30" t="s">
         <v>278</v>
       </c>
       <c r="J48" s="8" t="s">
@@ -3369,7 +3357,7 @@
       <c r="H49" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="31" t="s">
         <v>354</v>
       </c>
       <c r="J49" s="8" t="s">
@@ -3377,7 +3365,7 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="35" t="s">
+      <c r="M49" s="32" t="s">
         <v>356</v>
       </c>
       <c r="N49" s="8" t="s">
@@ -3405,7 +3393,7 @@
       <c r="H50" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="31" t="s">
         <v>354</v>
       </c>
       <c r="J50" s="8" t="s">
@@ -3413,7 +3401,7 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="35" t="s">
+      <c r="M50" s="32" t="s">
         <v>356</v>
       </c>
       <c r="N50" s="8" t="s">
@@ -3466,51 +3454,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.64"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="33" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="33" t="s">
         <v>13</v>
       </c>
     </row>
